--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwildermuth\Dropbox\PhD_UMass\WA_QNM\WA_QNM_MSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD826C-5403-4D48-B37E-DAA8D3437629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7E75F-D8D3-4406-B640-B0DAA983B9F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="1968" windowWidth="11028" windowHeight="9024" activeTab="2" xr2:uid="{3B0380DA-8E8E-491F-B6E9-18130E0320E1}"/>
+    <workbookView xWindow="41100" yWindow="2550" windowWidth="11025" windowHeight="9030" activeTab="2" xr2:uid="{3B0380DA-8E8E-491F-B6E9-18130E0320E1}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="325">
   <si>
     <t>Model Element</t>
   </si>
@@ -897,9 +897,6 @@
     <t>RW: merged halibut, spiny dogfish and sablefish into single node</t>
   </si>
   <si>
-    <t xml:space="preserve">Halibut, spiny dogfish, sablefish, and lingcod are important predator species </t>
-  </si>
-  <si>
     <t>The Washington Department of Ecology will use output from qualitative network models for the Seafloor and Kelp Forest habitats described in the WA Marine Spatial Plan (Andrews et al. 2015) to identify data components that the state should prioritize, track, and report on over time, and to indirectly inform resource management decisions about changing ocean conditions and new ocean uses. Qualitative network models use a network to describe positive or negative relationships between model elements. In the WA MSP Habitat models, the model elements are physical forces or states, ecological groups, or human activities, and the links represent interactions or drivers of change in one element due to changes in another. The relationships in the network can be represented as a community matrix where non-zero entries represent links between elements in columns and rows. Positive links are indicated with a 1, negative links with a -1. We can use matrix algebra to simulate the response of every element in the network if one or more elements is consistently increased or decreased with a press perturbation (Dambacher et al. 2002, Justus 2006).</t>
   </si>
   <si>
@@ -1109,6 +1106,51 @@
   </si>
   <si>
     <t>negative (small)</t>
+  </si>
+  <si>
+    <t>Sablefish</t>
+  </si>
+  <si>
+    <t>This stock is the main target of fishers, has the highest value, and unique diet and predatory functions in this system.</t>
+  </si>
+  <si>
+    <t>Sablefish are the main target of fisheries in this habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halibut, spiny dogfish, and lingcod are important predator species </t>
+  </si>
+  <si>
+    <t>Slope Rockfishes</t>
+  </si>
+  <si>
+    <t>Small Prey</t>
+  </si>
+  <si>
+    <t>Combined Benthic Invertebrates and Small Fishes because interactions with predators and lower trophic levels were similar</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Adult salmon are fished near kelp forest by tribal fishers</t>
+  </si>
+  <si>
+    <t>QNM Habitats workshop feedback, contact Joe Shoemaker</t>
+  </si>
+  <si>
+    <t>https://wdfw.wa.gov/species-habitats/species/bottomfish/rockfish</t>
+  </si>
+  <si>
+    <t>Koehn et al. 2016</t>
+  </si>
+  <si>
+    <t>removed because low contribution to flatfish groups in Koehn et al 2016</t>
+  </si>
+  <si>
+    <t>removed because low contribution to benthic pred group in Koehn et al 2016</t>
+  </si>
+  <si>
+    <t>Included by experts but does not meet threshold in Koehn et al. 2016</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1250,13 +1292,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1271,13 +1307,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1610,65 +1672,65 @@
   <sheetData>
     <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" spans="1:3" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+    </row>
+    <row r="6" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:3" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-    </row>
-    <row r="6" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+    </row>
+    <row r="7" spans="1:3" s="10" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-    </row>
-    <row r="7" spans="1:3" s="10" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+    </row>
+    <row r="8" spans="1:3" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-    </row>
-    <row r="8" spans="1:3" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+    </row>
+    <row r="9" spans="1:3" s="10" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-    </row>
-    <row r="9" spans="1:3" s="10" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+    </row>
+    <row r="10" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-    </row>
-    <row r="10" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
@@ -1784,11 +1846,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122884F8-8BAF-4831-B7BB-FFA5DFD6580C}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70:B72"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1840,19 +1902,19 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="50" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="29" t="s">
@@ -1871,11 +1933,11 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
@@ -1893,11 +1955,11 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1915,7 +1977,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
@@ -1930,51 +1992,52 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="50"/>
+      <c r="D6" s="24"/>
+      <c r="G6" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="J5" s="46" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="24"/>
-      <c r="G6" s="46" t="s">
+      <c r="H6" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="H6" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="46" t="s">
+      <c r="J6" s="43" t="s">
         <v>295</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="29" t="s">
@@ -1995,11 +2058,11 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
       <c r="G8" t="s">
         <v>32</v>
       </c>
@@ -2014,11 +2077,11 @@
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="29" t="s">
         <v>140</v>
       </c>
@@ -2026,7 +2089,7 @@
         <v>247</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -2035,19 +2098,19 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="50" t="s">
         <v>39</v>
       </c>
       <c r="G10" t="s">
@@ -2067,11 +2130,11 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="29" t="s">
         <v>81</v>
       </c>
@@ -2090,13 +2153,13 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>246</v>
@@ -2112,54 +2175,55 @@
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H13" s="27" t="s">
         <v>246</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="50"/>
       <c r="D14" s="24"/>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>302</v>
+      <c r="H14" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="47" t="s">
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>245</v>
@@ -2172,11 +2236,11 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
       <c r="G16" t="s">
         <v>45</v>
       </c>
@@ -2191,11 +2255,11 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
       <c r="G17" t="s">
         <v>46</v>
       </c>
@@ -2210,11 +2274,11 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
       <c r="G18" t="s">
         <v>269</v>
       </c>
@@ -2229,18 +2293,19 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" s="40"/>
+      <c r="J19" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2248,18 +2313,19 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" s="41"/>
+      <c r="J20" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2267,11 +2333,11 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="29" t="s">
         <v>267</v>
       </c>
@@ -2279,1485 +2345,1727 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="50"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B23" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="8" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="G23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>245</v>
+      <c r="K23" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="28"/>
       <c r="D24" s="24"/>
       <c r="E24" s="23"/>
       <c r="F24" s="28"/>
       <c r="G24" s="32" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H24" s="32" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="28"/>
       <c r="D25" s="24"/>
       <c r="E25" s="23"/>
       <c r="F25" s="28"/>
       <c r="G25" s="32" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H25" s="32" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="52"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D27" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F27" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G27" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="29" t="s">
+      <c r="H27" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="I27" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J27" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B28" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>63</v>
       </c>
-      <c r="G27" t="s">
-        <v>268</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="G28" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I28" t="s">
         <v>130</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="D28" s="24"/>
-      <c r="G28" s="27" t="s">
+    <row r="29" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="52"/>
+      <c r="D29" s="24"/>
+      <c r="G29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="H29" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B30" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>66</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>63</v>
       </c>
-      <c r="G29" t="s">
-        <v>268</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="G30" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="D30" s="24"/>
-      <c r="G30" s="25" t="s">
+    <row r="31" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="52"/>
+      <c r="D31" s="24"/>
+      <c r="G31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>260</v>
+      <c r="H31" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="52"/>
+      <c r="D32" s="36"/>
+      <c r="G32" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>260</v>
+        <v>69</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>68</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="I33" t="s">
-        <v>134</v>
-      </c>
-      <c r="J33" t="s">
-        <v>135</v>
+        <v>246</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="13" t="s">
+      <c r="B35" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J34" s="10" t="s">
+      <c r="H36" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+    <row r="37" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="13" t="s">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J35" s="10" t="s">
+      <c r="H37" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="K37" s="38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="56"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B40" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="29" t="s">
+      <c r="C40" s="44"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="29" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B41" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C41" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D41" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E41" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G41" t="s">
         <v>270</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H41" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="40"/>
-      <c r="G38" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="I40" t="s">
-        <v>134</v>
-      </c>
-      <c r="J40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="18" t="s">
-        <v>46</v>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
+      <c r="G42" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>246</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="B43" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I44" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="G45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="12"/>
-      <c r="G46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>139</v>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="12"/>
-      <c r="G47" s="10" t="s">
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="18" t="s">
         <v>145</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>246</v>
       </c>
       <c r="J47" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="27"/>
-      <c r="D48" s="24"/>
-      <c r="G48" s="25" t="s">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="G49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="56"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="12"/>
+      <c r="G50" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="J50" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="12"/>
+      <c r="G51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="56"/>
+      <c r="D52" s="24"/>
+      <c r="G52" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" t="s">
+        <v>315</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+    </row>
+    <row r="57" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="D57" s="24"/>
+      <c r="G57" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+    </row>
+    <row r="58" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="D58" s="24"/>
+      <c r="G58" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+    </row>
+    <row r="59" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="D59" s="24"/>
+      <c r="G59" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I60" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="J60" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" t="s">
+        <v>270</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="50"/>
+      <c r="D65" s="24"/>
+      <c r="G65" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="50"/>
+      <c r="D66" s="24"/>
+      <c r="G66" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="50"/>
+      <c r="D67" s="24"/>
+      <c r="G67" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="50"/>
+      <c r="D68" s="36"/>
+      <c r="G68" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="50"/>
+      <c r="D69" s="36"/>
+      <c r="G69" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I70" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J70" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H71" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I71" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J71" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J72" s="41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J73" s="41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J74" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J76" s="41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="54"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I77" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="J77" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="54"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I78" s="41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="42"/>
+      <c r="G79" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J79" s="41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="J80" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="56"/>
+      <c r="D81" s="45"/>
+      <c r="G81" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="H81" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I81" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="J81" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="56"/>
+      <c r="D82" s="45"/>
+      <c r="G82" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H82" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J82" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="56"/>
+      <c r="D83" s="45"/>
+      <c r="G83" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I83" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="56"/>
+      <c r="D84" s="45"/>
+      <c r="G84" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H84" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I84" s="34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D85" s="45"/>
+      <c r="F85" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="H85" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I48" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="I85" s="34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="B86" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J50" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="B87" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="I88" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="K88" s="29"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="49"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I51" t="s">
-        <v>94</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="H89" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="I89" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J89" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="K89" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H90" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="I90" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="J90" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K90" s="29"/>
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="49"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="I91" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J91" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="K91" s="29"/>
+    </row>
+    <row r="92" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="49"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J92" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="38"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-    </row>
-    <row r="53" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="24"/>
-      <c r="G53" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-    </row>
-    <row r="54" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="24"/>
-      <c r="G54" s="27" t="s">
+    <row r="93" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="49"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="49"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I54" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="24"/>
-      <c r="G55" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="38" t="s">
+      <c r="H94" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="49"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="49"/>
+      <c r="D96" s="24"/>
+      <c r="G96" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H96" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="I96" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="49"/>
+      <c r="D97" s="36"/>
+      <c r="G97" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="H97" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="G56" t="s">
-        <v>48</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" t="s">
-        <v>270</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="J59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="24"/>
-      <c r="G61" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I61" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="24"/>
-      <c r="G62" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="24"/>
-      <c r="G63" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="G64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I64" t="s">
-        <v>100</v>
-      </c>
-      <c r="J64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" t="s">
-        <v>268</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I65" t="s">
-        <v>100</v>
-      </c>
-      <c r="J65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" t="s">
-        <v>269</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J66" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" t="s">
-        <v>45</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I69" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="J69" s="29"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F70" s="40" t="s">
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" t="s">
+        <v>158</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G70" t="s">
-        <v>270</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="38"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J71" s="1" t="s">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="38"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="H72" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I72" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-    </row>
-    <row r="73" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="24"/>
-      <c r="G73" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="K73" s="27"/>
-    </row>
-    <row r="74" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="D74" s="31"/>
-      <c r="F74" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="I74" s="29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="38" t="s">
+      <c r="G99" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="G77" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H77" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="I77" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="K77" s="29"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="I78" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J78" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="K78" s="29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="H79" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="I79" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="J79" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="K79" s="29"/>
-    </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H80" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="I80" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="J80" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="K80" s="29"/>
-    </row>
-    <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" s="38"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J81" s="5" t="s">
+      <c r="H99" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="G85" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="I85" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
-        <v>159</v>
-      </c>
-      <c r="F86" t="s">
-        <v>158</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="B77:B84"/>
+  <mergeCells count="75">
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="F88:F95"/>
+    <mergeCell ref="E88:E95"/>
+    <mergeCell ref="D88:D95"/>
+    <mergeCell ref="C88:C95"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="F70:F75"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="F77:F84"/>
-    <mergeCell ref="E77:E84"/>
-    <mergeCell ref="D77:D84"/>
-    <mergeCell ref="C77:C84"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="E15:E21"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="B70:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3766,11 +4074,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE08BE0-37AB-49B7-9C5B-E7B942F7E8DC}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70:B72"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3822,19 +4130,19 @@
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="50" t="s">
         <v>171</v>
       </c>
       <c r="G2" t="s">
@@ -3854,11 +4162,11 @@
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="27" t="s">
         <v>32</v>
       </c>
@@ -3892,7 +4200,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>246</v>
@@ -3908,19 +4216,19 @@
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="29" t="s">
@@ -3941,11 +4249,11 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="G6" t="s">
         <v>32</v>
       </c>
@@ -3960,7 +4268,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="26"/>
       <c r="D7" s="24"/>
       <c r="G7" s="25" t="s">
@@ -3970,14 +4278,14 @@
         <v>246</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -3993,7 +4301,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H8" s="29" t="s">
         <v>246</v>
@@ -4007,23 +4315,23 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="28"/>
       <c r="D9" s="24"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>246</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="28"/>
       <c r="D10" s="24"/>
       <c r="E10" s="28"/>
@@ -4035,23 +4343,23 @@
         <v>246</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="28"/>
       <c r="D11" s="24"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>300</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4090,7 +4398,7 @@
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="50" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -4109,7 +4417,7 @@
         <v>175</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>176</v>
@@ -4119,6 +4427,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="50"/>
       <c r="D14" s="24"/>
       <c r="G14" s="25" t="s">
         <v>233</v>
@@ -4127,15 +4436,15 @@
         <v>245</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>305</v>
+      <c r="B15" s="50" t="s">
+        <v>304</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>179</v>
@@ -4160,6 +4469,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="50"/>
       <c r="D16" s="24"/>
       <c r="E16" s="26"/>
       <c r="G16" s="25" t="s">
@@ -4169,15 +4479,15 @@
         <v>245</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>297</v>
+      <c r="B17" s="52" t="s">
+        <v>296</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>185</v>
@@ -4192,17 +4502,17 @@
         <v>12</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>245</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
+      <c r="B18" s="52"/>
       <c r="D18" s="24"/>
       <c r="E18" s="26"/>
       <c r="G18" s="27" t="s">
@@ -4212,25 +4522,25 @@
         <v>245</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
+      <c r="B19" s="52"/>
       <c r="D19" s="24"/>
       <c r="E19" s="26"/>
       <c r="G19" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>245</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
+      <c r="B20" s="52"/>
       <c r="D20" s="24"/>
       <c r="E20" s="26"/>
       <c r="G20" s="27" t="s">
@@ -4240,15 +4550,15 @@
         <v>245</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>300</v>
+      <c r="B21" s="52" t="s">
+        <v>299</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>141</v>
@@ -4261,7 +4571,7 @@
         <v>142</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>245</v>
@@ -4277,7 +4587,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="28"/>
       <c r="D22" s="24"/>
       <c r="E22" s="23"/>
@@ -4289,26 +4599,26 @@
         <v>245</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="50" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -4323,11 +4633,11 @@
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="19" t="s">
         <v>205</v>
       </c>
@@ -4345,11 +4655,11 @@
       <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="5" t="s">
         <v>201</v>
       </c>
@@ -4367,13 +4677,13 @@
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="40"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>246</v>
@@ -4386,11 +4696,11 @@
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="40"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="5" t="s">
         <v>198</v>
       </c>
@@ -4405,11 +4715,11 @@
       <c r="A28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="40"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="10" t="s">
         <v>261</v>
       </c>
@@ -4424,11 +4734,11 @@
       <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="40"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="10" t="s">
         <v>231</v>
       </c>
@@ -4443,11 +4753,11 @@
       <c r="A30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="40"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="10" t="s">
         <v>266</v>
       </c>
@@ -4459,7 +4769,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
+      <c r="B31" s="49"/>
       <c r="D31" s="24"/>
       <c r="E31" s="26"/>
       <c r="G31" s="25" t="s">
@@ -4469,28 +4779,28 @@
         <v>246</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="38"/>
+      <c r="B32" s="49"/>
       <c r="D32" s="24"/>
       <c r="E32" s="26"/>
       <c r="G32" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>245</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="52" t="s">
         <v>233</v>
       </c>
       <c r="D33" s="12"/>
@@ -4505,11 +4815,11 @@
         <v>246</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
+      <c r="B34" s="52"/>
       <c r="D34" s="24"/>
       <c r="E34" s="26"/>
       <c r="G34" s="27" t="s">
@@ -4519,7 +4829,7 @@
         <v>246</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K34" s="32"/>
     </row>
@@ -4527,7 +4837,7 @@
       <c r="A35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="50" t="s">
         <v>188</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -4543,13 +4853,14 @@
         <v>238</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H35" s="27" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="50"/>
       <c r="D36" s="24"/>
       <c r="E36" s="26"/>
       <c r="G36" s="27" t="s">
@@ -4559,26 +4870,26 @@
         <v>246</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="50" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="13" t="s">
@@ -4598,11 +4909,11 @@
       <c r="A38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="40"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="17" t="s">
         <v>190</v>
       </c>
@@ -4610,132 +4921,133 @@
         <v>246</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="B40" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="H40" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="38"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
     <row r="41" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="38"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="28"/>
       <c r="D41" s="24"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="25" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>246</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="38"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="28"/>
       <c r="D42" s="24"/>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="G42" s="25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H42" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="49"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="I42" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" t="s">
-        <v>230</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>232</v>
+      <c r="I43" s="25" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="B44" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>196</v>
+      </c>
       <c r="G44" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>246</v>
@@ -4748,13 +5060,13 @@
       <c r="A45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
       <c r="G45" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>246</v>
@@ -4767,515 +5079,508 @@
       <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C49" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D49" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E49" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F49" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G49" t="s">
         <v>175</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="19" t="s">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H50" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I50" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J50" s="19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="K50" s="29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="G51" t="s">
-        <v>198</v>
-      </c>
       <c r="H51" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>207</v>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H53" s="10" t="s">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="G54" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>260</v>
+      <c r="I54" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>175</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>245</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19" t="s">
-        <v>232</v>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="I57" s="10" t="s">
-        <v>252</v>
-      </c>
       <c r="J57" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H58" s="10" t="s">
+      <c r="B58" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>260</v>
+      <c r="I58" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J59" s="5" t="s">
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="40"/>
+      <c r="B60" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="50" t="s">
+        <v>251</v>
+      </c>
       <c r="G60" s="10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
+    <row r="61" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="52"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="K63" s="41"/>
+    </row>
+    <row r="64" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="52"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="39"/>
+      <c r="G64" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I64" s="41"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+    </row>
+    <row r="65" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C65" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D65" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E65" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F65" s="29" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
+    <row r="66" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B66" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C66" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D66" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F66" s="29" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="36"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="G66" t="s">
-        <v>201</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="42"/>
+      <c r="B67" s="27" t="s">
+        <v>229</v>
+      </c>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
-      <c r="F67" s="40"/>
+      <c r="F67" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="G67" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>246</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>232</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="42"/>
+      <c r="B68" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="D68" s="12"/>
       <c r="E68" s="14"/>
-      <c r="F68" s="40"/>
+      <c r="F68" s="50" t="s">
+        <v>232</v>
+      </c>
       <c r="G68" s="5" t="s">
         <v>261</v>
       </c>
@@ -5286,59 +5591,47 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="42"/>
+      <c r="B69" s="52"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="40" t="s">
+      <c r="E69" s="14"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="52"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="39"/>
+      <c r="G70" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="5" t="s">
+      <c r="B71" s="52" t="s">
         <v>231</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" t="s">
+        <v>201</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>246</v>
@@ -5346,198 +5639,276 @@
       <c r="J71" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K71" s="5" t="s">
+    </row>
+    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="52"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="52"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I73" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="52"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="58"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K76" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="48"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="26"/>
-      <c r="G72" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+    <row r="77" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="58"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="26"/>
+      <c r="G77" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="I77" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B78" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C78" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D78" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E78" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="F73" s="40" t="s">
+      <c r="F78" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G78" t="s">
         <v>261</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H78" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="J78" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="19" t="s">
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H79" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="I74" s="19" t="s">
+      <c r="I79" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="J74" s="19" t="s">
+      <c r="J79" s="19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+    <row r="80" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="29" t="s">
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H80" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="I75" s="29" t="s">
+      <c r="I80" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="J75" s="29" t="s">
+      <c r="J80" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="K75" s="29" t="s">
+      <c r="K80" s="29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+    <row r="81" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="10" t="s">
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H81" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="I81" s="41"/>
+      <c r="J81" s="41" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="29" t="s">
+      <c r="K81" s="41"/>
+    </row>
+    <row r="82" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B82" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C82" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D82" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E82" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F82" s="29" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="30"/>
-      <c r="G78" s="29" t="s">
+    <row r="83" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="30"/>
+      <c r="G83" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="H78" s="29" t="s">
+      <c r="H83" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="I78" s="29" t="s">
-        <v>301</v>
+      <c r="I83" s="29" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="68">
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B64"/>
     <mergeCell ref="F23:F30"/>
     <mergeCell ref="E23:E30"/>
     <mergeCell ref="D23:D30"/>
@@ -5547,26 +5918,72 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B54:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B1CC910281F5B4E934FD165FDF6FB89" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4b638dfe15fad0fc0ea7f9ce396f6cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="23b00675-eb75-486c-82bd-7ed31245b2ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7bc4e4876d57034d2dd3d60622abfdd" ns3:_="">
     <xsd:import namespace="23b00675-eb75-486c-82bd-7ed31245b2ba"/>
@@ -5698,22 +6115,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49DDB8E0-B54A-48C7-9CD5-F6F83A84023D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FFAA9A4-7F5C-4158-AE1D-27A1D888CCD2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFCF36A9-FFFA-40BF-BB58-BF17E4FDD0D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5729,21 +6148,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FFAA9A4-7F5C-4158-AE1D-27A1D888CCD2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49DDB8E0-B54A-48C7-9CD5-F6F83A84023D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwildermuth\Dropbox\PhD_UMass\WA_QNM\WA_QNM_MSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7E75F-D8D3-4406-B640-B0DAA983B9F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B89280-2BDE-46A4-9C26-FF8CADB32E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41100" yWindow="2550" windowWidth="11025" windowHeight="9030" activeTab="2" xr2:uid="{3B0380DA-8E8E-491F-B6E9-18130E0320E1}"/>
+    <workbookView xWindow="9636" yWindow="4452" windowWidth="11028" windowHeight="7380" xr2:uid="{3B0380DA-8E8E-491F-B6E9-18130E0320E1}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -1323,25 +1323,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1659,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A932C61-716A-419A-8DE2-BC8ADB6CDA34}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1764,7 +1764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1902,19 +1902,19 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="29" t="s">
@@ -1933,11 +1933,11 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" t="s">
         <v>45</v>
       </c>
@@ -1955,11 +1955,11 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="50"/>
+      <c r="B6" s="49"/>
       <c r="D6" s="24"/>
       <c r="G6" s="43" t="s">
         <v>293</v>
@@ -2025,19 +2025,19 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="49" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="29" t="s">
@@ -2058,11 +2058,11 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
       <c r="G8" t="s">
         <v>32</v>
       </c>
@@ -2077,11 +2077,11 @@
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="29" t="s">
         <v>140</v>
       </c>
@@ -2098,19 +2098,19 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>39</v>
       </c>
       <c r="G10" t="s">
@@ -2130,11 +2130,11 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="29" t="s">
         <v>81</v>
       </c>
@@ -2153,11 +2153,11 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="1" t="s">
         <v>296</v>
       </c>
@@ -2175,11 +2175,11 @@
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="16" t="s">
         <v>299</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50"/>
+      <c r="B14" s="49"/>
       <c r="D14" s="24"/>
       <c r="G14" s="43" t="s">
         <v>32</v>
@@ -2207,13 +2207,13 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>296</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="50" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="47" t="s">
@@ -2236,9 +2236,9 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="47"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" t="s">
@@ -2255,9 +2255,9 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="47"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" t="s">
@@ -2274,9 +2274,9 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="47"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
       <c r="G18" t="s">
@@ -2293,9 +2293,9 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="47"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
       <c r="G19" s="40" t="s">
@@ -2313,9 +2313,9 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="47"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
       <c r="G20" s="41" t="s">
@@ -2333,9 +2333,9 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="47"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
       <c r="G21" s="29" t="s">
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="33"/>
       <c r="D22" s="36"/>
       <c r="E22" s="33"/>
@@ -2362,7 +2362,7 @@
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="51" t="s">
         <v>299</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2392,7 +2392,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="28"/>
       <c r="D24" s="24"/>
       <c r="E24" s="23"/>
@@ -2405,7 +2405,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="52"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="28"/>
       <c r="D25" s="24"/>
       <c r="E25" s="23"/>
@@ -2418,7 +2418,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="28"/>
       <c r="D26" s="24"/>
       <c r="E26" s="23"/>
@@ -2466,7 +2466,7 @@
       <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="51" t="s">
         <v>59</v>
       </c>
       <c r="C28" t="s">
@@ -2495,7 +2495,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="52"/>
+      <c r="B29" s="51"/>
       <c r="D29" s="24"/>
       <c r="G29" s="27" t="s">
         <v>46</v>
@@ -2511,7 +2511,7 @@
       <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="51" t="s">
         <v>60</v>
       </c>
       <c r="C30" t="s">
@@ -2540,7 +2540,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
+      <c r="B31" s="51"/>
       <c r="D31" s="24"/>
       <c r="G31" s="25" t="s">
         <v>61</v>
@@ -2553,7 +2553,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="52"/>
+      <c r="B32" s="51"/>
       <c r="D32" s="36"/>
       <c r="G32" s="38" t="s">
         <v>288</v>
@@ -2569,19 +2569,19 @@
       <c r="A33" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="49" t="s">
         <v>68</v>
       </c>
       <c r="G33" s="13" t="s">
@@ -2601,11 +2601,11 @@
       <c r="A34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="13" t="s">
         <v>314</v>
       </c>
@@ -2620,19 +2620,19 @@
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="53" t="s">
         <v>260</v>
       </c>
       <c r="G35" s="13" t="s">
@@ -2652,11 +2652,11 @@
       <c r="A36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="13" t="s">
         <v>145</v>
       </c>
@@ -2671,11 +2671,11 @@
       <c r="A37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="41" t="s">
         <v>269</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="52" t="s">
         <v>310</v>
       </c>
       <c r="C38" s="37" t="s">
@@ -2713,7 +2713,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="56"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="37"/>
       <c r="D39" s="36"/>
       <c r="E39" s="35"/>
@@ -2749,16 +2749,16 @@
       <c r="A41" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="49" t="s">
         <v>74</v>
       </c>
       <c r="G41" t="s">
@@ -2775,10 +2775,10 @@
       <c r="A42" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="49"/>
       <c r="G42" s="13" t="s">
         <v>145</v>
       </c>
@@ -2828,19 +2828,19 @@
       <c r="A44" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="49" t="s">
         <v>78</v>
       </c>
       <c r="G44" s="18" t="s">
@@ -2860,11 +2860,11 @@
       <c r="A45" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
       <c r="G45" s="44" t="s">
         <v>269</v>
       </c>
@@ -2883,11 +2883,11 @@
       <c r="A46" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
       <c r="G46" s="18" t="s">
         <v>46</v>
       </c>
@@ -2902,11 +2902,11 @@
       <c r="A47" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="18" t="s">
         <v>145</v>
       </c>
@@ -2921,11 +2921,11 @@
       <c r="A48" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
       <c r="G48" s="44" t="s">
         <v>105</v>
       </c>
@@ -2941,10 +2941,10 @@
       <c r="A49" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="49" t="s">
         <v>313</v>
       </c>
       <c r="D49" s="12"/>
@@ -2968,8 +2968,8 @@
       <c r="A50" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="12"/>
       <c r="G50" s="41" t="s">
         <v>45</v>
@@ -2991,8 +2991,8 @@
       <c r="A51" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="50"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="12"/>
       <c r="G51" s="10" t="s">
         <v>145</v>
@@ -3005,7 +3005,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="56"/>
+      <c r="B52" s="52"/>
       <c r="D52" s="24"/>
       <c r="G52" s="25" t="s">
         <v>314</v>
@@ -3021,19 +3021,19 @@
       <c r="A53" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="53" t="s">
+      <c r="F53" s="54" t="s">
         <v>95</v>
       </c>
       <c r="G53" s="29" t="s">
@@ -3053,11 +3053,11 @@
       <c r="A54" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
       <c r="G54" s="29" t="s">
         <v>89</v>
       </c>
@@ -3075,16 +3075,16 @@
       <c r="A55" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F55" s="49" t="s">
         <v>93</v>
       </c>
       <c r="G55" t="s">
@@ -3104,10 +3104,10 @@
       <c r="A56" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="49"/>
-      <c r="F56" s="50"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="29" t="s">
         <v>140</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="A57" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="50"/>
+      <c r="B57" s="49"/>
       <c r="D57" s="24"/>
       <c r="G57" s="27" t="s">
         <v>61</v>
@@ -3142,7 +3142,7 @@
       <c r="A58" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="50"/>
+      <c r="B58" s="49"/>
       <c r="D58" s="24"/>
       <c r="G58" s="27" t="s">
         <v>45</v>
@@ -3160,7 +3160,7 @@
       <c r="A59" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="50"/>
+      <c r="B59" s="49"/>
       <c r="D59" s="24"/>
       <c r="G59" s="34" t="s">
         <v>296</v>
@@ -3178,19 +3178,19 @@
       <c r="A60" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="49" t="s">
         <v>196</v>
       </c>
       <c r="G60" s="41" t="s">
@@ -3210,11 +3210,11 @@
       <c r="A61" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
       <c r="G61" t="s">
         <v>270</v>
       </c>
@@ -3229,11 +3229,11 @@
       <c r="A62" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="29" t="s">
         <v>105</v>
       </c>
@@ -3249,11 +3249,11 @@
       <c r="A63" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="27" t="s">
         <v>314</v>
       </c>
@@ -3268,11 +3268,11 @@
       <c r="A64" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="29" t="s">
         <v>267</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="50"/>
+      <c r="B65" s="49"/>
       <c r="D65" s="24"/>
       <c r="G65" s="25" t="s">
         <v>298</v>
@@ -3296,7 +3296,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="50"/>
+      <c r="B66" s="49"/>
       <c r="D66" s="24"/>
       <c r="G66" s="41" t="s">
         <v>44</v>
@@ -3306,7 +3306,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="50"/>
+      <c r="B67" s="49"/>
       <c r="D67" s="24"/>
       <c r="G67" s="41" t="s">
         <v>46</v>
@@ -3321,7 +3321,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="50"/>
+      <c r="B68" s="49"/>
       <c r="D68" s="36"/>
       <c r="G68" s="38" t="s">
         <v>315</v>
@@ -3337,7 +3337,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="50"/>
+      <c r="B69" s="49"/>
       <c r="D69" s="36"/>
       <c r="G69" s="38" t="s">
         <v>288</v>
@@ -3353,19 +3353,19 @@
       <c r="A70" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="54" t="s">
+      <c r="D70" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E70" s="53" t="s">
+      <c r="E70" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F70" s="53" t="s">
+      <c r="F70" s="54" t="s">
         <v>167</v>
       </c>
       <c r="G70" s="41" t="s">
@@ -3385,11 +3385,11 @@
       <c r="A71" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
       <c r="G71" s="41" t="s">
         <v>268</v>
       </c>
@@ -3407,11 +3407,11 @@
       <c r="A72" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
       <c r="G72" s="41" t="s">
         <v>269</v>
       </c>
@@ -3426,11 +3426,11 @@
       <c r="A73" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
       <c r="G73" s="41" t="s">
         <v>105</v>
       </c>
@@ -3445,11 +3445,11 @@
       <c r="A74" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
       <c r="G74" s="41" t="s">
         <v>45</v>
       </c>
@@ -3467,11 +3467,11 @@
       <c r="A75" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
       <c r="G75" s="41" t="s">
         <v>288</v>
       </c>
@@ -3486,16 +3486,16 @@
       <c r="A76" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F76" s="53" t="s">
+      <c r="F76" s="54" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="41" t="s">
@@ -3512,10 +3512,10 @@
       <c r="A77" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="54"/>
-      <c r="F77" s="53"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="55"/>
+      <c r="F77" s="54"/>
       <c r="G77" s="41" t="s">
         <v>46</v>
       </c>
@@ -3533,10 +3533,10 @@
       <c r="A78" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="54"/>
-      <c r="F78" s="53"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
+      <c r="F78" s="54"/>
       <c r="G78" s="41" t="s">
         <v>267</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="A80" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="52" t="s">
         <v>315</v>
       </c>
       <c r="C80" s="34" t="s">
@@ -3598,7 +3598,7 @@
       <c r="A81" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="56"/>
+      <c r="B81" s="52"/>
       <c r="D81" s="45"/>
       <c r="G81" s="34" t="s">
         <v>314</v>
@@ -3617,7 +3617,7 @@
       <c r="A82" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="56"/>
+      <c r="B82" s="52"/>
       <c r="D82" s="45"/>
       <c r="G82" s="34" t="s">
         <v>269</v>
@@ -3633,7 +3633,7 @@
       <c r="A83" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="56"/>
+      <c r="B83" s="52"/>
       <c r="D83" s="45"/>
       <c r="G83" s="34" t="s">
         <v>45</v>
@@ -3652,7 +3652,7 @@
       <c r="A84" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="56"/>
+      <c r="B84" s="52"/>
       <c r="D84" s="45"/>
       <c r="G84" s="34" t="s">
         <v>288</v>
@@ -3729,19 +3729,19 @@
       <c r="A88" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="F88" s="50" t="s">
+      <c r="F88" s="49" t="s">
         <v>153</v>
       </c>
       <c r="G88" s="29" t="s">
@@ -3762,11 +3762,11 @@
       <c r="A89" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B89" s="49"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
       <c r="G89" s="29" t="s">
         <v>44</v>
       </c>
@@ -3787,11 +3787,11 @@
       <c r="A90" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B90" s="49"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
       <c r="G90" s="29" t="s">
         <v>110</v>
       </c>
@@ -3810,11 +3810,11 @@
       <c r="A91" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="49"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
       <c r="G91" s="29" t="s">
         <v>61</v>
       </c>
@@ -3833,11 +3833,11 @@
       <c r="A92" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="49"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
       <c r="G92" s="6" t="s">
         <v>314</v>
       </c>
@@ -3852,11 +3852,11 @@
       <c r="A93" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="49"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
       <c r="G93" s="6" t="s">
         <v>46</v>
       </c>
@@ -3871,11 +3871,11 @@
       <c r="A94" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
       <c r="G94" s="6" t="s">
         <v>45</v>
       </c>
@@ -3890,11 +3890,11 @@
       <c r="A95" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="49"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
       <c r="G95" s="13" t="s">
         <v>269</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="49"/>
+      <c r="B96" s="50"/>
       <c r="D96" s="24"/>
       <c r="G96" s="27" t="s">
         <v>60</v>
@@ -3916,7 +3916,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="49"/>
+      <c r="B97" s="50"/>
       <c r="D97" s="36"/>
       <c r="G97" s="34" t="s">
         <v>310</v>
@@ -3991,59 +3991,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="E15:E21"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F60:F64"/>
     <mergeCell ref="F88:F95"/>
     <mergeCell ref="E88:E95"/>
     <mergeCell ref="D88:D95"/>
@@ -4052,6 +3999,14 @@
     <mergeCell ref="D70:D75"/>
     <mergeCell ref="E70:E75"/>
     <mergeCell ref="F70:F75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="F15:F21"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="D7:D9"/>
@@ -4061,10 +4016,55 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="F76:F78"/>
     <mergeCell ref="B70:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4076,7 +4076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE08BE0-37AB-49B7-9C5B-E7B942F7E8DC}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
@@ -4130,19 +4130,19 @@
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>171</v>
       </c>
       <c r="G2" t="s">
@@ -4162,11 +4162,11 @@
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="27" t="s">
         <v>32</v>
       </c>
@@ -4216,19 +4216,19 @@
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="49" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="29" t="s">
@@ -4249,11 +4249,11 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
       <c r="G6" t="s">
         <v>32</v>
       </c>
@@ -4268,7 +4268,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="26"/>
       <c r="D7" s="24"/>
       <c r="G7" s="25" t="s">
@@ -4285,7 +4285,7 @@
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -4315,7 +4315,7 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="28"/>
       <c r="D9" s="24"/>
       <c r="E9" s="28"/>
@@ -4331,7 +4331,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="55"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="28"/>
       <c r="D10" s="24"/>
       <c r="E10" s="28"/>
@@ -4347,7 +4347,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="55"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="28"/>
       <c r="D11" s="24"/>
       <c r="E11" s="28"/>
@@ -4398,7 +4398,7 @@
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -4427,7 +4427,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50"/>
+      <c r="B14" s="49"/>
       <c r="D14" s="24"/>
       <c r="G14" s="25" t="s">
         <v>233</v>
@@ -4443,7 +4443,7 @@
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>304</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -4469,7 +4469,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="50"/>
+      <c r="B16" s="49"/>
       <c r="D16" s="24"/>
       <c r="E16" s="26"/>
       <c r="G16" s="25" t="s">
@@ -4486,7 +4486,7 @@
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="51" t="s">
         <v>296</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -4512,7 +4512,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="52"/>
+      <c r="B18" s="51"/>
       <c r="D18" s="24"/>
       <c r="E18" s="26"/>
       <c r="G18" s="27" t="s">
@@ -4526,7 +4526,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="52"/>
+      <c r="B19" s="51"/>
       <c r="D19" s="24"/>
       <c r="E19" s="26"/>
       <c r="G19" s="27" t="s">
@@ -4540,7 +4540,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="D20" s="24"/>
       <c r="E20" s="26"/>
       <c r="G20" s="27" t="s">
@@ -4557,7 +4557,7 @@
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>299</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -4587,7 +4587,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="28"/>
       <c r="D22" s="24"/>
       <c r="E22" s="23"/>
@@ -4606,19 +4606,19 @@
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -4633,11 +4633,11 @@
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="19" t="s">
         <v>205</v>
       </c>
@@ -4655,11 +4655,11 @@
       <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="5" t="s">
         <v>201</v>
       </c>
@@ -4677,11 +4677,11 @@
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="5" t="s">
         <v>298</v>
       </c>
@@ -4696,11 +4696,11 @@
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="5" t="s">
         <v>198</v>
       </c>
@@ -4715,11 +4715,11 @@
       <c r="A28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="10" t="s">
         <v>261</v>
       </c>
@@ -4734,11 +4734,11 @@
       <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="10" t="s">
         <v>231</v>
       </c>
@@ -4753,11 +4753,11 @@
       <c r="A30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="10" t="s">
         <v>266</v>
       </c>
@@ -4769,7 +4769,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
+      <c r="B31" s="50"/>
       <c r="D31" s="24"/>
       <c r="E31" s="26"/>
       <c r="G31" s="25" t="s">
@@ -4783,7 +4783,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
+      <c r="B32" s="50"/>
       <c r="D32" s="24"/>
       <c r="E32" s="26"/>
       <c r="G32" s="25" t="s">
@@ -4800,7 +4800,7 @@
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="51" t="s">
         <v>233</v>
       </c>
       <c r="D33" s="12"/>
@@ -4819,7 +4819,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="52"/>
+      <c r="B34" s="51"/>
       <c r="D34" s="24"/>
       <c r="E34" s="26"/>
       <c r="G34" s="27" t="s">
@@ -4837,7 +4837,7 @@
       <c r="A35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="49" t="s">
         <v>188</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -4860,7 +4860,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="50"/>
+      <c r="B36" s="49"/>
       <c r="D36" s="24"/>
       <c r="E36" s="26"/>
       <c r="G36" s="27" t="s">
@@ -4877,19 +4877,19 @@
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="49" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="13" t="s">
@@ -4909,11 +4909,11 @@
       <c r="A38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="50"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="17" t="s">
         <v>190</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="A40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="50" t="s">
         <v>297</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -4980,7 +4980,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="49"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="28"/>
       <c r="D41" s="24"/>
       <c r="E41" s="28"/>
@@ -4996,7 +4996,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="49"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="28"/>
       <c r="D42" s="24"/>
       <c r="E42" s="28"/>
@@ -5012,7 +5012,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="49"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="28"/>
       <c r="D43" s="24"/>
       <c r="E43" s="28"/>
@@ -5031,19 +5031,19 @@
       <c r="A44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="53" t="s">
         <v>196</v>
       </c>
       <c r="G44" t="s">
@@ -5060,11 +5060,11 @@
       <c r="A45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
       <c r="G45" t="s">
         <v>266</v>
       </c>
@@ -5079,11 +5079,11 @@
       <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
       <c r="G46" t="s">
         <v>229</v>
       </c>
@@ -5127,19 +5127,19 @@
       <c r="A49" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="49" t="s">
         <v>200</v>
       </c>
       <c r="G49" t="s">
@@ -5159,11 +5159,11 @@
       <c r="A50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="50"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="49"/>
       <c r="G50" s="19" t="s">
         <v>205</v>
       </c>
@@ -5181,11 +5181,11 @@
       <c r="A51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="50"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="5" t="s">
         <v>201</v>
       </c>
@@ -5200,11 +5200,11 @@
       <c r="A52" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="50"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="49"/>
       <c r="G52" s="10" t="s">
         <v>249</v>
       </c>
@@ -5219,11 +5219,11 @@
       <c r="A53" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="50"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="49"/>
       <c r="G53" s="29" t="s">
         <v>190</v>
       </c>
@@ -5242,19 +5242,19 @@
       <c r="A54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="49" t="s">
         <v>219</v>
       </c>
       <c r="G54" t="s">
@@ -5274,11 +5274,11 @@
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="50"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="19" t="s">
         <v>205</v>
       </c>
@@ -5296,11 +5296,11 @@
       <c r="A56" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="50"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="10" t="s">
         <v>231</v>
       </c>
@@ -5315,11 +5315,11 @@
       <c r="A57" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="50"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="49"/>
       <c r="G57" s="10" t="s">
         <v>249</v>
       </c>
@@ -5334,19 +5334,19 @@
       <c r="A58" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E58" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="54" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="19" t="s">
@@ -5369,11 +5369,11 @@
       <c r="A59" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="53"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="54"/>
       <c r="G59" s="19" t="s">
         <v>201</v>
       </c>
@@ -5389,17 +5389,17 @@
       <c r="A60" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="50" t="s">
         <v>86</v>
       </c>
       <c r="E60" s="15"/>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="49" t="s">
         <v>251</v>
       </c>
       <c r="G60" s="10" t="s">
@@ -5419,11 +5419,11 @@
       <c r="A61" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="49"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="50"/>
+      <c r="F61" s="49"/>
       <c r="G61" s="10" t="s">
         <v>231</v>
       </c>
@@ -5438,19 +5438,19 @@
       <c r="A62" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="51" t="s">
+      <c r="E62" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="F62" s="50" t="s">
+      <c r="F62" s="49" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -5473,11 +5473,11 @@
       <c r="A63" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="41" t="s">
         <v>190</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="K63" s="41"/>
     </row>
     <row r="64" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="52"/>
+      <c r="B64" s="51"/>
       <c r="D64" s="36"/>
       <c r="E64" s="39"/>
       <c r="G64" s="41" t="s">
@@ -5573,12 +5573,12 @@
       <c r="A68" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="51" t="s">
         <v>230</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="14"/>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="49" t="s">
         <v>232</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -5595,10 +5595,10 @@
       <c r="A69" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="52"/>
+      <c r="B69" s="51"/>
       <c r="D69" s="12"/>
       <c r="E69" s="14"/>
-      <c r="F69" s="50"/>
+      <c r="F69" s="49"/>
       <c r="G69" s="5" t="s">
         <v>266</v>
       </c>
@@ -5610,7 +5610,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="52"/>
+      <c r="B70" s="51"/>
       <c r="D70" s="36"/>
       <c r="E70" s="39"/>
       <c r="G70" s="38" t="s">
@@ -5624,10 +5624,10 @@
       <c r="A71" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="F71" s="50" t="s">
+      <c r="F71" s="49" t="s">
         <v>232</v>
       </c>
       <c r="G71" t="s">
@@ -5644,10 +5644,10 @@
       <c r="A72" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="52"/>
+      <c r="B72" s="51"/>
       <c r="D72" s="12"/>
       <c r="E72" s="14"/>
-      <c r="F72" s="50"/>
+      <c r="F72" s="49"/>
       <c r="G72" s="5" t="s">
         <v>266</v>
       </c>
@@ -5662,10 +5662,10 @@
       <c r="A73" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="52"/>
+      <c r="B73" s="51"/>
       <c r="D73" s="12"/>
       <c r="E73" s="14"/>
-      <c r="F73" s="50"/>
+      <c r="F73" s="49"/>
       <c r="G73" s="5" t="s">
         <v>261</v>
       </c>
@@ -5683,10 +5683,10 @@
       <c r="A74" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="52"/>
+      <c r="B74" s="51"/>
       <c r="D74" s="12"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="50"/>
+      <c r="F74" s="49"/>
       <c r="G74" s="10" t="s">
         <v>249</v>
       </c>
@@ -5701,12 +5701,12 @@
       <c r="A75" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>298</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="14"/>
-      <c r="F75" s="50" t="s">
+      <c r="F75" s="49" t="s">
         <v>232</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -5726,10 +5726,10 @@
       <c r="A76" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="58"/>
+      <c r="B76" s="57"/>
       <c r="D76" s="12"/>
       <c r="E76" s="14"/>
-      <c r="F76" s="50"/>
+      <c r="F76" s="49"/>
       <c r="G76" s="5" t="s">
         <v>231</v>
       </c>
@@ -5744,7 +5744,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="58"/>
+      <c r="B77" s="57"/>
       <c r="D77" s="24"/>
       <c r="E77" s="26"/>
       <c r="G77" s="25" t="s">
@@ -5761,19 +5761,19 @@
       <c r="A78" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="D78" s="49" t="s">
+      <c r="D78" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="51" t="s">
+      <c r="E78" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="F78" s="50" t="s">
+      <c r="F78" s="49" t="s">
         <v>12</v>
       </c>
       <c r="G78" t="s">
@@ -5793,11 +5793,11 @@
       <c r="A79" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="50"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="49"/>
       <c r="G79" s="19" t="s">
         <v>205</v>
       </c>
@@ -5815,11 +5815,11 @@
       <c r="A80" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="50"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="49"/>
       <c r="G80" s="29" t="s">
         <v>198</v>
       </c>
@@ -5840,11 +5840,11 @@
       <c r="A81" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="50"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="49"/>
       <c r="G81" s="41" t="s">
         <v>266</v>
       </c>
@@ -5895,55 +5895,9 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B54:B57"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="F44:F46"/>
@@ -5960,27 +5914,73 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="E54:E57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="F23:F30"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6116,18 +6116,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49DDB8E0-B54A-48C7-9CD5-F6F83A84023D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FFAA9A4-7F5C-4158-AE1D-27A1D888CCD2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FFAA9A4-7F5C-4158-AE1D-27A1D888CCD2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49DDB8E0-B54A-48C7-9CD5-F6F83A84023D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
